--- a/outputs/ML_Results/carown_LR_new/Kassel.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Kassel.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ8" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ19" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.2754437345321</v>
+        <v>23.33642030932038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988876443454852</v>
+        <v>0.9988396823379586</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.08517819922922</v>
+        <v>-16.68534862166782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999248092359333</v>
+        <v>0.9991703821889971</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.18986025940959</v>
+        <v>-16.56110676361488</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992434853712737</v>
+        <v>0.9991765596583234</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.77312299527462</v>
+        <v>-18.18979034523738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991738070261728</v>
+        <v>0.9990955793686673</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.47164812193314</v>
+        <v>-17.85914453614283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991870747353142</v>
+        <v>0.99911201951238</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.14049870350171</v>
+        <v>-17.59494364873592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992016484019918</v>
+        <v>0.9991251559279446</v>
       </c>
     </row>
     <row r="8">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04255885773072453</v>
+        <v>-0.08832676039303188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8675367298706719</v>
+        <v>0.7343828847562095</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004748827047801037</v>
+        <v>0.0005432447634168936</v>
       </c>
       <c r="C9" t="n">
-        <v>9.767912344756131e-06</v>
+        <v>9.657347740239531e-07</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01137028996279836</v>
+        <v>0.0109720989968227</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1863644533350435</v>
+        <v>0.1993245067838986</v>
       </c>
     </row>
     <row r="11">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02288304238960035</v>
+        <v>-0.01929884456626028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9245425925080256</v>
+        <v>0.9370824230852908</v>
       </c>
     </row>
     <row r="12">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.092349135946039</v>
+        <v>0.8843125834203761</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004511739696900485</v>
+        <v>0.004705603537825729</v>
       </c>
     </row>
     <row r="13">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4384200498253206</v>
+        <v>0.3450877414502148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2726561390912614</v>
+        <v>0.3897750060740072</v>
       </c>
     </row>
     <row r="14">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.496924027238065e-05</v>
+        <v>-3.737561217043903e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7043969153232073</v>
+        <v>0.8924879590919685</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.842520855445007e-07</v>
+        <v>1.714470010835464e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5743645974684082</v>
+        <v>0.9583947299237765</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04862774614562395</v>
+        <v>-0.06083858999601172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8293528260933802</v>
+        <v>0.7888845678553976</v>
       </c>
     </row>
     <row r="17">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02168252218417711</v>
+        <v>0.1001945216865133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9526039712809705</v>
+        <v>0.7832715502480491</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.567144683426099</v>
+        <v>-4.857000974369922</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2510277826406482</v>
+        <v>0.5208285075153473</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02591994683241801</v>
+        <v>-0.02349061872675666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4369907218738817</v>
+        <v>0.4861825104588916</v>
       </c>
     </row>
     <row r="20">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.06836866956410892</v>
+        <v>-0.05265474713282299</v>
       </c>
       <c r="C20" t="n">
-        <v>0.170335923029981</v>
+        <v>0.3188703617113714</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.262232782615036</v>
+        <v>5.9437047350136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06633168248325946</v>
+        <v>0.1171944983663659</v>
       </c>
     </row>
     <row r="22">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.354275825612815</v>
+        <v>-0.9411043351785704</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6814965714063768</v>
+        <v>0.7765614608299659</v>
       </c>
     </row>
     <row r="23">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.002076902233405474</v>
+        <v>-0.001606690722371837</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01254529267532156</v>
+        <v>0.05409330422383942</v>
       </c>
     </row>
   </sheetData>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.52453834355219</v>
+        <v>24.41159941523254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988555019939441</v>
+        <v>0.9988521475900662</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.80650933579733</v>
+        <v>-16.79333086236648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991063677667362</v>
+        <v>0.9992103642993957</v>
       </c>
     </row>
     <row r="4">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.81252388411609</v>
+        <v>-16.48931021555869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999106047963185</v>
+        <v>0.9992246595866152</v>
       </c>
     </row>
     <row r="5">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.15862556466428</v>
+        <v>-18.54940700575876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999034473356647</v>
+        <v>0.9991277922415142</v>
       </c>
     </row>
     <row r="6">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.80291307620379</v>
+        <v>-18.25733252049823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990533872178051</v>
+        <v>0.9991415258090257</v>
       </c>
     </row>
     <row r="7">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.75158433747734</v>
+        <v>-17.78066603881526</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990561164580425</v>
+        <v>0.9991639390353589</v>
       </c>
     </row>
     <row r="8">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07839759436688871</v>
+        <v>-0.1287686769209409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7819168061297664</v>
+        <v>0.623987858306243</v>
       </c>
     </row>
     <row r="9">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004957109105600724</v>
+        <v>0.0004811692829984432</v>
       </c>
       <c r="C9" t="n">
-        <v>6.460926597579593e-06</v>
+        <v>2.070559865967638e-05</v>
       </c>
     </row>
     <row r="10">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01132890007467965</v>
+        <v>0.01537927723866651</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1883787556448591</v>
+        <v>0.09026330356347273</v>
       </c>
     </row>
     <row r="11">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05481716960028846</v>
+        <v>0.05500040279942801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8226127996098487</v>
+        <v>0.8279046672056631</v>
       </c>
     </row>
     <row r="12">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.157370379941181</v>
+        <v>1.008052959613688</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002491373542704945</v>
+        <v>0.001861232986776692</v>
       </c>
     </row>
     <row r="13">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5995650189848513</v>
+        <v>0.3919006774904997</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1409739839248082</v>
+        <v>0.3575322252716469</v>
       </c>
     </row>
     <row r="14">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002349272212140229</v>
+        <v>-3.872621448350806e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4013721961625362</v>
+        <v>0.8766175705688412</v>
       </c>
     </row>
     <row r="15">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.367285700446761e-07</v>
+        <v>-9.2633181821077e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6818159070968002</v>
+        <v>0.9779863023772234</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1234410004756408</v>
+        <v>-0.1052866509226777</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5964566676230383</v>
+        <v>0.6500620736961373</v>
       </c>
     </row>
     <row r="17">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01153514853615643</v>
+        <v>-0.1261803149039624</v>
       </c>
       <c r="C17" t="n">
-        <v>0.975398832479079</v>
+        <v>0.7361679360962077</v>
       </c>
     </row>
     <row r="18">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.902015865270933</v>
+        <v>-8.3284909688761</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3661297331176102</v>
+        <v>0.2775351907359397</v>
       </c>
     </row>
     <row r="19">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03042989250415672</v>
+        <v>-0.03380348330407664</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3763788307099495</v>
+        <v>0.3209327632603122</v>
       </c>
     </row>
     <row r="20">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02749510498459579</v>
+        <v>-0.04643008690973559</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6071729298901478</v>
+        <v>0.3511341960583297</v>
       </c>
     </row>
     <row r="21">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.266311760716399</v>
+        <v>5.875045205908366</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0607818482135202</v>
+        <v>0.08532026249616884</v>
       </c>
     </row>
     <row r="22">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.496966042902714</v>
+        <v>-2.729391888653824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6524980355022088</v>
+        <v>0.4079726261256532</v>
       </c>
     </row>
     <row r="23">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001264333827048608</v>
+        <v>-0.001530009701517286</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1383874047664322</v>
+        <v>0.06956875157499348</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.80206353235786</v>
+        <v>23.37180401217043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988540167380071</v>
+        <v>0.9988955036217664</v>
       </c>
     </row>
     <row r="3">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.89006167677114</v>
+        <v>-16.86414031330116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991511411716396</v>
+        <v>0.9992030402843955</v>
       </c>
     </row>
     <row r="4">
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.77959180388764</v>
+        <v>-16.73567964964289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991566931525442</v>
+        <v>0.9992091110324759</v>
       </c>
     </row>
     <row r="5">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.55424283079877</v>
+        <v>-18.43651206705117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990675029780387</v>
+        <v>0.9991287337117752</v>
       </c>
     </row>
     <row r="6">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.26561460120935</v>
+        <v>-18.07523655119873</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990820088163023</v>
+        <v>0.9991458067381498</v>
       </c>
     </row>
     <row r="7">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.7948283264349</v>
+        <v>-17.69742083491894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991056695298153</v>
+        <v>0.9991636614159876</v>
       </c>
     </row>
     <row r="8">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1036980603537166</v>
+        <v>-0.1051471515500513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6804540390389933</v>
+        <v>0.6973549606344991</v>
       </c>
     </row>
     <row r="9">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004890317341392067</v>
+        <v>0.0005122117601137642</v>
       </c>
       <c r="C9" t="n">
-        <v>9.59675053175171e-06</v>
+        <v>4.717261396053963e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007953991066454802</v>
+        <v>0.01247969331768036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3617246164314885</v>
+        <v>0.1557492797861479</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01289646182307192</v>
+        <v>0.06763871315335968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9579816707207561</v>
+        <v>0.7821993319626641</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9550930809415749</v>
+        <v>1.051377473816975</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002773291503184616</v>
+        <v>0.001105302935895712</v>
       </c>
     </row>
     <row r="13">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3999564176487249</v>
+        <v>0.4136076348084115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3233132798038315</v>
+        <v>0.3155602908626916</v>
       </c>
     </row>
     <row r="14">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001405159649402634</v>
+        <v>-3.105644688296951e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6086623848962315</v>
+        <v>0.9899257856478286</v>
       </c>
     </row>
     <row r="15">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.26252805328616e-08</v>
+        <v>1.283410601008615e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8502469038529094</v>
+        <v>0.6930571202257352</v>
       </c>
     </row>
     <row r="16">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1206621879146564</v>
+        <v>-0.05490192970957037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5995913436811551</v>
+        <v>0.8107780048935298</v>
       </c>
     </row>
     <row r="17">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01150825985937308</v>
+        <v>-0.04401803529312096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9750208346523328</v>
+        <v>0.904519649189193</v>
       </c>
     </row>
     <row r="18">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7.625513143451892</v>
+        <v>-7.24978102179083</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3134762875642823</v>
+        <v>0.3375570373426946</v>
       </c>
     </row>
     <row r="19">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03579153239048385</v>
+        <v>-0.02640636833837313</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2960558197177389</v>
+        <v>0.4336953403608941</v>
       </c>
     </row>
     <row r="20">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.03286093715203089</v>
+        <v>-0.04796198457036108</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5336417101897887</v>
+        <v>0.3328466883972256</v>
       </c>
     </row>
     <row r="21">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.779371916664171</v>
+        <v>6.525969429731968</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03935117487248469</v>
+        <v>0.05308807921506906</v>
       </c>
     </row>
     <row r="22">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2.187025278097976</v>
+        <v>-2.055072334729833</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5036438693088698</v>
+        <v>0.5292491934639184</v>
       </c>
     </row>
     <row r="23">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001514761448475916</v>
+        <v>-0.001913449251720912</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06844815726996664</v>
+        <v>0.02036826055870379</v>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.00119084584929</v>
+        <v>23.15683775831508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988587619512213</v>
+        <v>0.9988703588420023</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.23805842823143</v>
+        <v>-16.83171979370457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993216577249424</v>
+        <v>0.9991789117180062</v>
       </c>
     </row>
     <row r="4">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.87099478344522</v>
+        <v>-16.91899273524103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993361022017121</v>
+        <v>0.9991746543541139</v>
       </c>
     </row>
     <row r="5">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.07201559519543</v>
+        <v>-18.11190473503845</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9992494889054734</v>
+        <v>0.9991164615079067</v>
       </c>
     </row>
     <row r="6">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.59663092816562</v>
+        <v>-17.66095133574506</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999268195966819</v>
+        <v>0.9991384599965206</v>
       </c>
     </row>
     <row r="7">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.44095128919717</v>
+        <v>-17.47861145643374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992743221818635</v>
+        <v>0.9991473549333505</v>
       </c>
     </row>
     <row r="8">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2000390313038078</v>
+        <v>0.1142303970824556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4460205597962501</v>
+        <v>0.681111135580882</v>
       </c>
     </row>
     <row r="9">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005714201475737383</v>
+        <v>0.0005715389103391058</v>
       </c>
       <c r="C9" t="n">
-        <v>1.713680518688352e-06</v>
+        <v>4.322709285370158e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007761988140862119</v>
+        <v>0.01314722788500547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3789876712832784</v>
+        <v>0.1347500699597416</v>
       </c>
     </row>
     <row r="11">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0652390293297862</v>
+        <v>-0.1013349742537247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7968124123888567</v>
+        <v>0.6811613561623522</v>
       </c>
     </row>
     <row r="12">
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.028451187591038</v>
+        <v>0.9854695903457135</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001381437587662479</v>
+        <v>0.001953712395121361</v>
       </c>
     </row>
     <row r="13">
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.497690202962458</v>
+        <v>0.3895564203358775</v>
       </c>
       <c r="C13" t="n">
-        <v>0.231843746387156</v>
+        <v>0.3466994650271766</v>
       </c>
     </row>
     <row r="14">
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.527941264869146e-05</v>
+        <v>-7.536633450248829e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7950874690344213</v>
+        <v>0.7607461257354079</v>
       </c>
     </row>
     <row r="15">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.751516419311992e-07</v>
+        <v>-3.755458947593368e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6055934755400534</v>
+        <v>0.9097442466000252</v>
       </c>
     </row>
     <row r="16">
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2619410001110429</v>
+        <v>-0.1054993133321423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2746759984387153</v>
+        <v>0.6430958528796884</v>
       </c>
     </row>
     <row r="17">
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03262588195044294</v>
+        <v>-0.06304765133380344</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9312122991504389</v>
+        <v>0.8662571381435841</v>
       </c>
     </row>
     <row r="18">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9.462269664833212</v>
+        <v>-6.528511626688045</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2258366736282907</v>
+        <v>0.3912007018399739</v>
       </c>
     </row>
     <row r="19">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03909680029316773</v>
+        <v>-0.03057070985686001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2827662524450485</v>
+        <v>0.3724159003447238</v>
       </c>
     </row>
     <row r="20">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.07158150838658547</v>
+        <v>-0.04434363060417013</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1629845057369479</v>
+        <v>0.3728939297627129</v>
       </c>
     </row>
     <row r="21">
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.660904691650225</v>
+        <v>5.932295714607085</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1781149913337955</v>
+        <v>0.07935322078101623</v>
       </c>
     </row>
     <row r="22">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.942556659480738</v>
+        <v>-1.429129608697838</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5608727590378035</v>
+        <v>0.6678567014355249</v>
       </c>
     </row>
     <row r="23">
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001280787670768051</v>
+        <v>-0.001518749837731216</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1327582836161411</v>
+        <v>0.06191487571918592</v>
       </c>
     </row>
   </sheetData>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.606412239761</v>
+        <v>20.20554512463692</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989178620540681</v>
+        <v>0.9989729583245526</v>
       </c>
     </row>
     <row r="3">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.7174454001367</v>
+        <v>-16.81805990166174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.99916272142582</v>
+        <v>0.9991451430003926</v>
       </c>
     </row>
     <row r="4">
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.61523837754795</v>
+        <v>-16.3280296919492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991678403734336</v>
+        <v>0.999170051082114</v>
       </c>
     </row>
     <row r="5">
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.28736761228177</v>
+        <v>-18.55441551414726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990840932834539</v>
+        <v>0.9990568845985935</v>
       </c>
     </row>
     <row r="6">
@@ -1805,10 +1805,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.91323734313459</v>
+        <v>-18.22700437194617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991028312608512</v>
+        <v>0.9990735268016953</v>
       </c>
     </row>
     <row r="7">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.83813219958849</v>
+        <v>-17.77020449770651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991065928347184</v>
+        <v>0.9990967457935086</v>
       </c>
     </row>
     <row r="8">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05912923748031553</v>
+        <v>-0.1983001096272387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.818981213573631</v>
+        <v>0.4363402571998237</v>
       </c>
     </row>
     <row r="9">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004964954138560758</v>
+        <v>0.0004637945409404464</v>
       </c>
       <c r="C9" t="n">
-        <v>1.391365531162829e-05</v>
+        <v>2.209724401576369e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01737892021775164</v>
+        <v>0.0150851341363046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05363843285572448</v>
+        <v>0.08200546562578599</v>
       </c>
     </row>
     <row r="11">
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006399391421969379</v>
+        <v>0.02856975838579177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9794854759346808</v>
+        <v>0.907543229002423</v>
       </c>
     </row>
     <row r="12">
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9944166913473774</v>
+        <v>0.9745301561522423</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002028098512889604</v>
+        <v>0.002028319197397812</v>
       </c>
     </row>
     <row r="13">
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2586298423142897</v>
+        <v>0.2844840357970677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5430753586704289</v>
+        <v>0.4814000862675469</v>
       </c>
     </row>
     <row r="14">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.160331481449261e-05</v>
+        <v>-0.0001742841271924862</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9001223136522372</v>
+        <v>0.4832055389933086</v>
       </c>
     </row>
     <row r="15">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.711247122771943e-07</v>
+        <v>6.389393926231427e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.607358259287936</v>
+        <v>0.9842895246846138</v>
       </c>
     </row>
     <row r="16">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01080263573238623</v>
+        <v>-0.07012719295126738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9631235882118017</v>
+        <v>0.7583406142753568</v>
       </c>
     </row>
     <row r="17">
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05480695281859797</v>
+        <v>0.1835022261157278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8829870219495799</v>
+        <v>0.6257137595947386</v>
       </c>
     </row>
     <row r="18">
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.875721325972208</v>
+        <v>-2.809057398833916</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5295166227633799</v>
+        <v>0.7134280895742979</v>
       </c>
     </row>
     <row r="19">
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01059094631923358</v>
+        <v>-0.01437902026802964</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7569894026312253</v>
+        <v>0.678642738567408</v>
       </c>
     </row>
     <row r="20">
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.04548174436619734</v>
+        <v>-0.02473281213738067</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3670849374591137</v>
+        <v>0.626820448231171</v>
       </c>
     </row>
     <row r="21">
@@ -2000,10 +2000,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.970425492873135</v>
+        <v>3.825733679037834</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1517066575911344</v>
+        <v>0.2646336872985933</v>
       </c>
     </row>
     <row r="22">
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.605026135223967</v>
+        <v>-0.905056052271325</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6207409580362355</v>
+        <v>0.7832361428635712</v>
       </c>
     </row>
     <row r="23">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001563620552835456</v>
+        <v>-0.0007924485665010177</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07528965885497385</v>
+        <v>0.3491307519822634</v>
       </c>
     </row>
   </sheetData>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.01600635651258</v>
+        <v>24.50368994948861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998884548009739</v>
+        <v>0.9988900162475405</v>
       </c>
     </row>
     <row r="3">
@@ -2088,10 +2088,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.05163527817379</v>
+        <v>-17.27900318339465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992080163207793</v>
+        <v>0.9992172845220758</v>
       </c>
     </row>
     <row r="4">
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.84764623173292</v>
+        <v>-17.20639100560449</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992174908343369</v>
+        <v>0.9992205737548761</v>
       </c>
     </row>
     <row r="5">
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.48525591322617</v>
+        <v>-18.78905746404431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991414301134267</v>
+        <v>0.9991488811302096</v>
       </c>
     </row>
     <row r="6">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.28357330344576</v>
+        <v>-18.41226887137021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991507975006583</v>
+        <v>0.9991659491371686</v>
       </c>
     </row>
     <row r="7">
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.88976751490881</v>
+        <v>-18.16481569090339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991690882766147</v>
+        <v>0.9991771584276725</v>
       </c>
     </row>
     <row r="8">
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.09845267435162726</v>
+        <v>0.008404468155733655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6961952153687816</v>
+        <v>0.9754501197468999</v>
       </c>
     </row>
     <row r="9">
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000494150518898632</v>
+        <v>0.0004992152900927549</v>
       </c>
       <c r="C9" t="n">
-        <v>4.090347609515978e-06</v>
+        <v>6.153604520170739e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0127059951116391</v>
+        <v>0.006640255655951607</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1375764697988129</v>
+        <v>0.446085075871987</v>
       </c>
     </row>
     <row r="11">
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02541659564735958</v>
+        <v>-0.196499616790601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9160410769699325</v>
+        <v>0.4235840010615738</v>
       </c>
     </row>
     <row r="12">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.060812776758217</v>
+        <v>1.125514541566567</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005812927328599478</v>
+        <v>0.0002919822465127356</v>
       </c>
     </row>
     <row r="13">
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4815910105577376</v>
+        <v>0.6268131022507376</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2356349384522965</v>
+        <v>0.1201726374320668</v>
       </c>
     </row>
     <row r="14">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.890870772950676e-05</v>
+        <v>5.180897038092933e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9380990611644529</v>
+        <v>0.983444087806184</v>
       </c>
     </row>
     <row r="15">
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.789673562507822e-08</v>
+        <v>-9.88884195356609e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7841997177128657</v>
+        <v>0.7602248392453064</v>
       </c>
     </row>
     <row r="16">
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.106755557980417</v>
+        <v>-0.1169667130055617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6285523454272377</v>
+        <v>0.6116923192821633</v>
       </c>
     </row>
     <row r="17">
@@ -2270,10 +2270,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06678790795957594</v>
+        <v>-0.09052053828417445</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8554338060574295</v>
+        <v>0.8053010404196725</v>
       </c>
     </row>
     <row r="18">
@@ -2283,10 +2283,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.259824381766512</v>
+        <v>-9.732006450274307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2622536105424124</v>
+        <v>0.1961102661721884</v>
       </c>
     </row>
     <row r="19">
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03294637024090919</v>
+        <v>-0.02328956691131678</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3250324025728747</v>
+        <v>0.4889964064449804</v>
       </c>
     </row>
     <row r="20">
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.04434645611148799</v>
+        <v>-0.04625098859298518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3677533966160385</v>
+        <v>0.3524310578568499</v>
       </c>
     </row>
     <row r="21">
@@ -2322,10 +2322,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.421773934857775</v>
+        <v>5.777902877321519</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1026945384780509</v>
+        <v>0.09252859795838818</v>
       </c>
     </row>
     <row r="22">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.9769453809078091</v>
+        <v>-0.8532764538002743</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7646196354712522</v>
+        <v>0.7938767986991448</v>
       </c>
     </row>
     <row r="23">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001522021601446224</v>
+        <v>-0.001647466261662871</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05799464791986167</v>
+        <v>0.04995831747592532</v>
       </c>
     </row>
   </sheetData>
@@ -2397,10 +2397,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.90479967225362</v>
+        <v>9.100279011140831</v>
       </c>
       <c r="C2" t="n">
-        <v>0.974653558197456</v>
+        <v>0.8944299102950209</v>
       </c>
     </row>
     <row r="3">
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.312895810495462</v>
+        <v>-5.981012997553815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9817042861610678</v>
+        <v>0.9301203805907255</v>
       </c>
     </row>
     <row r="4">
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.464873082462045</v>
+        <v>-5.745627168367204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9814057923381106</v>
+        <v>0.9328661660579551</v>
       </c>
     </row>
     <row r="5">
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-10.71047119879922</v>
+        <v>-7.762668113373626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9789592714763997</v>
+        <v>0.9093843538913281</v>
       </c>
     </row>
     <row r="6">
@@ -2449,10 +2449,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10.25026104690822</v>
+        <v>-7.419698614968362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9798631593553201</v>
+        <v>0.9133719465308393</v>
       </c>
     </row>
     <row r="7">
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.03844213050909</v>
+        <v>-6.854012740585172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9802792083417478</v>
+        <v>0.919955719381105</v>
       </c>
     </row>
     <row r="8">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1878949473041011</v>
+        <v>-0.1207442101325635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5604733888694542</v>
+        <v>0.6483774974092943</v>
       </c>
     </row>
     <row r="9">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005118471470394348</v>
+        <v>0.0004473276648846459</v>
       </c>
       <c r="C9" t="n">
-        <v>4.209904833669329e-06</v>
+        <v>4.809147969384309e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01718996640536785</v>
+        <v>0.01396157674858068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04795201081593192</v>
+        <v>0.1020343033122842</v>
       </c>
     </row>
     <row r="11">
@@ -2514,10 +2514,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04181408834188136</v>
+        <v>-0.05944094422373081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8645083310025786</v>
+        <v>0.8103650830684725</v>
       </c>
     </row>
     <row r="12">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9727335931195755</v>
+        <v>1.313145879723815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00240463122006031</v>
+        <v>3.42553258638058e-05</v>
       </c>
     </row>
     <row r="13">
@@ -2540,10 +2540,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2402497654535429</v>
+        <v>0.5990899621022491</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5562343091658652</v>
+        <v>0.1345392991352557</v>
       </c>
     </row>
     <row r="14">
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.136004419147633e-05</v>
+        <v>-0.0002434188171706619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8044042919036029</v>
+        <v>0.3821246112139213</v>
       </c>
     </row>
     <row r="15">
@@ -2566,10 +2566,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.959206597724012e-08</v>
+        <v>-1.313647902569396e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.856682234618222</v>
+        <v>0.6956668525811142</v>
       </c>
     </row>
     <row r="16">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02720602803521089</v>
+        <v>-0.09428070226856755</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9066108567005813</v>
+        <v>0.6775595954433605</v>
       </c>
     </row>
     <row r="17">
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09863327620679463</v>
+        <v>0.06393383779223824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7910867670216237</v>
+        <v>0.8647055067823914</v>
       </c>
     </row>
     <row r="18">
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.730842900817176</v>
+        <v>-5.415097120219862</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7189098435051855</v>
+        <v>0.47190543215958</v>
       </c>
     </row>
     <row r="19">
@@ -2618,10 +2618,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007040562476655645</v>
+        <v>-0.02491347234993891</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8356648785026858</v>
+        <v>0.4639802054612066</v>
       </c>
     </row>
     <row r="20">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.04156537252767803</v>
+        <v>-0.01850389334669656</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4016474484389074</v>
+        <v>0.7265649137863901</v>
       </c>
     </row>
     <row r="21">
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.393909736525489</v>
+        <v>7.833052576298894</v>
       </c>
       <c r="C21" t="n">
-        <v>0.113973715761447</v>
+        <v>0.04146022079378866</v>
       </c>
     </row>
     <row r="22">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.09427076168619526</v>
+        <v>-0.3639700430115834</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9768522690640278</v>
+        <v>0.9122081954890454</v>
       </c>
     </row>
     <row r="23">
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001581625573626641</v>
+        <v>-0.001218184736152446</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05676412245379384</v>
+        <v>0.1355321299644978</v>
       </c>
     </row>
   </sheetData>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.69781898274908</v>
+        <v>21.29429879043445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9845288081962456</v>
+        <v>0.9855056351454914</v>
       </c>
     </row>
     <row r="3">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11.09986138995396</v>
+        <v>-11.47306753149194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.989714855507612</v>
+        <v>0.992190185710202</v>
       </c>
     </row>
     <row r="4">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10.55894921329585</v>
+        <v>-11.38277741727628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9902160418624237</v>
+        <v>0.9922516458501028</v>
       </c>
     </row>
     <row r="5">
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-12.61568299012801</v>
+        <v>-13.17568311418192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9883103885421584</v>
+        <v>0.9910312467287323</v>
       </c>
     </row>
     <row r="6">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.3551929375751</v>
+        <v>-12.80615305544076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9885517403472234</v>
+        <v>0.9912827775903076</v>
       </c>
     </row>
     <row r="7">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.36621704871296</v>
+        <v>-12.36802765817796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9894680670732617</v>
+        <v>0.9915810015578292</v>
       </c>
     </row>
     <row r="8">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1225836132689073</v>
+        <v>-0.1281036409152443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6478133362411049</v>
+        <v>0.6203883314651519</v>
       </c>
     </row>
     <row r="9">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005174002802780805</v>
+        <v>0.0005272737187060987</v>
       </c>
       <c r="C9" t="n">
-        <v>2.086856422643911e-06</v>
+        <v>2.589969837958288e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01256964092277629</v>
+        <v>0.01148906992051261</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1528995227005921</v>
+        <v>0.1908071100319523</v>
       </c>
     </row>
     <row r="11">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1059032643370727</v>
+        <v>-0.02393935377169619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6693129198657373</v>
+        <v>0.9235336680331536</v>
       </c>
     </row>
     <row r="12">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.029998673852011</v>
+        <v>1.161006243646865</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001547681530339099</v>
+        <v>0.0003077419153978755</v>
       </c>
     </row>
     <row r="13">
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4762580667856529</v>
+        <v>0.5017653833521039</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2384586132493529</v>
+        <v>0.2221857100660859</v>
       </c>
     </row>
     <row r="14">
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.349104406268164e-05</v>
+        <v>-3.250446939563843e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7991984810639184</v>
+        <v>0.9060706619265098</v>
       </c>
     </row>
     <row r="15">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.319540903629245e-09</v>
+        <v>-4.311860297405805e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.99682942843971</v>
+        <v>0.9012520861501957</v>
       </c>
     </row>
     <row r="16">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05433975256064228</v>
+        <v>-0.04933228079486657</v>
       </c>
       <c r="C16" t="n">
-        <v>0.81311775784018</v>
+        <v>0.835842987449592</v>
       </c>
     </row>
     <row r="17">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1390097903990102</v>
+        <v>-0.1358989110858229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.708890663624778</v>
+        <v>0.7208795962467752</v>
       </c>
     </row>
     <row r="18">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.279717570405372</v>
+        <v>-9.862762713543326</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2775166672306209</v>
+        <v>0.2062478067342701</v>
       </c>
     </row>
     <row r="19">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03769887934892137</v>
+        <v>-0.04905521301881797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2635450032348098</v>
+        <v>0.1656898302582158</v>
       </c>
     </row>
     <row r="20">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.03030016622901504</v>
+        <v>-0.0619103397935586</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5457657571583905</v>
+        <v>0.2457087478057699</v>
       </c>
     </row>
     <row r="21">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.671022493723031</v>
+        <v>7.449310987172683</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05061320323213088</v>
+        <v>0.05016520060805266</v>
       </c>
     </row>
     <row r="22">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2.083336981918126</v>
+        <v>-1.771260375648704</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5355326871077529</v>
+        <v>0.6031173236126206</v>
       </c>
     </row>
     <row r="23">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001644575760462534</v>
+        <v>-0.001881992087117202</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04896359501497084</v>
+        <v>0.03022879575269892</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Kassel.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Kassel.xlsx
@@ -11,10 +11,11 @@
     <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="summ4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ9" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ19" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ9" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,283 +466,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.33642030932038</v>
+        <v>3.232749214483619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988396823379586</v>
+        <v>0.6511990405860955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.68534862166782</v>
+        <v>0.4796306120785719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991703821889971</v>
+        <v>0.0004707160214097504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.56110676361488</v>
+        <v>0.0006322496109636854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991765596583234</v>
+        <v>4.353941312599676e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.18979034523738</v>
+        <v>0.01368805737598993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990955793686673</v>
+        <v>0.09462397367275972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.85914453614283</v>
+        <v>-0.04886019742876832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.99911201951238</v>
+        <v>0.8370012456342086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.59494364873592</v>
+        <v>0.6471399472101287</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991251559279446</v>
+        <v>0.0323227130163104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08832676039303188</v>
+        <v>0.1546170200784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7343828847562095</v>
+        <v>0.6874442282577469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005432447634168936</v>
+        <v>-0.0001021295808167791</v>
       </c>
       <c r="C9" t="n">
-        <v>9.657347740239531e-07</v>
+        <v>0.7196384296267565</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0109720989968227</v>
+        <v>2.123773671824233e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1993245067838986</v>
+        <v>0.9465529417312567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01929884456626028</v>
+        <v>-0.06415283994933693</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9370824230852908</v>
+        <v>0.7751212881565537</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8843125834203761</v>
+        <v>0.1481494846475344</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004705603537825729</v>
+        <v>0.6775117901882015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3450877414502148</v>
+        <v>-3.647398415974833</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3897750060740072</v>
+        <v>0.6233905385255675</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.737561217043903e-05</v>
+        <v>-0.02331469707674559</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8924879590919685</v>
+        <v>0.4806725862055584</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.714470010835464e-08</v>
+        <v>-0.04172464904517464</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9583947299237765</v>
+        <v>0.4611067789379515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.06083858999601172</v>
+        <v>6.617874988108899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7888845678553976</v>
+        <v>0.07889044273437347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1001945216865133</v>
+        <v>-0.4676716308438432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7832715502480491</v>
+        <v>0.8859550287723061</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.857000974369922</v>
+        <v>-0.001465903308550425</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5208285075153473</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02349061872675666</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4861825104588916</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.05265474713282299</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3188703617113714</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5.9437047350136</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1171944983663659</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.9411043351785704</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7765614608299659</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.001606690722371837</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.05409330422383942</v>
+        <v>0.08006484410384296</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,283 +723,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.41159941523254</v>
+        <v>4.146612912674534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988521475900662</v>
+        <v>0.5468459799923684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.79333086236648</v>
+        <v>0.5921566671559741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992103642993957</v>
+        <v>4.666643431491632e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.48931021555869</v>
+        <v>0.0005851209285656735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992246595866152</v>
+        <v>7.269836185388368e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.54940700575876</v>
+        <v>0.01701923507988418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991277922415142</v>
+        <v>0.04895199148343795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.25733252049823</v>
+        <v>0.0049110348630996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991415258090257</v>
+        <v>0.9839064163915354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.78066603881526</v>
+        <v>0.796349249757771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991639390353589</v>
+        <v>0.009917505630960881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1287686769209409</v>
+        <v>0.2367499527357458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.623987858306243</v>
+        <v>0.5554672330555697</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004811692829984432</v>
+        <v>-7.850021918451469e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.070559865967638e-05</v>
+        <v>0.7579594653949896</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01537927723866651</v>
+        <v>-9.795682092910333e-10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09026330356347273</v>
+        <v>0.9975824189490244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05500040279942801</v>
+        <v>-0.1022907979459797</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8279046672056631</v>
+        <v>0.6539289711178344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.008052959613688</v>
+        <v>-0.07669728505891249</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001861232986776692</v>
+        <v>0.8330976645479077</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3919006774904997</v>
+        <v>-7.246713359080497</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3575322252716469</v>
+        <v>0.3335620228475557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.872621448350806e-05</v>
+        <v>-0.03295694741377816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8766175705688412</v>
+        <v>0.3189923567121514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.2633181821077e-09</v>
+        <v>-0.03903535027699914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9779863023772234</v>
+        <v>0.4589439175102585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1052866509226777</v>
+        <v>6.319894814854827</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6500620736961373</v>
+        <v>0.05952183350719921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1261803149039624</v>
+        <v>-1.965835136221326</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7361679360962077</v>
+        <v>0.5416210200489442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.3284909688761</v>
+        <v>-0.001414104764324154</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2775351907359397</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.03380348330407664</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3209327632603122</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.04643008690973559</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3511341960583297</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5.875045205908366</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.08532026249616884</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.729391888653824</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4079726261256532</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.001530009701517286</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.06956875157499348</v>
+        <v>0.09496024352369727</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,283 +980,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.37180401217043</v>
+        <v>3.659875101853954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988955036217664</v>
+        <v>0.5923793391051975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.86414031330116</v>
+        <v>0.5095363117878398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992030402843955</v>
+        <v>0.0003387999021236669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.73567964964289</v>
+        <v>0.0006083505644298941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992091110324759</v>
+        <v>1.790091708880981e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.43651206705117</v>
+        <v>0.01421410350052848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991287337117752</v>
+        <v>0.09055566888349993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.07523655119873</v>
+        <v>0.02160437310992282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991458067381498</v>
+        <v>0.9277125615589377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.69742083491894</v>
+        <v>0.7823226463414451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991636614159876</v>
+        <v>0.01111004771489048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1051471515500513</v>
+        <v>0.2213602420827077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6973549606344991</v>
+        <v>0.5747548806967145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005122117601137642</v>
+        <v>-6.265626496355852e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.717261396053963e-06</v>
+        <v>0.8034420990020058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01247969331768036</v>
+        <v>9.944018318336654e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1557492797861479</v>
+        <v>0.7517998077717569</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06763871315335968</v>
+        <v>-0.1036855438392807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7821993319626641</v>
+        <v>0.6472700221354756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.051377473816975</v>
+        <v>-0.0430024862658356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001105302935895712</v>
+        <v>0.9045499520565425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4136076348084115</v>
+        <v>-6.373069874749647</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3155602908626916</v>
+        <v>0.3910706333113135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.105644688296951e-06</v>
+        <v>-0.02692051133846263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9899257856478286</v>
+        <v>0.4147042894985403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.283410601008615e-07</v>
+        <v>-0.03765678507651375</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6930571202257352</v>
+        <v>0.4719593995994172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05490192970957037</v>
+        <v>6.666261762148182</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8107780048935298</v>
+        <v>0.04514208774805371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04401803529312096</v>
+        <v>-1.812346861293064</v>
       </c>
       <c r="C17" t="n">
-        <v>0.904519649189193</v>
+        <v>0.5707064762578984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7.24978102179083</v>
+        <v>-0.001725461909957182</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3375570373426946</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02640636833837313</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4336953403608941</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.04796198457036108</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3328466883972256</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6.525969429731968</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.05308807921506906</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.055072334729833</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5292491934639184</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.001913449251720912</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.02036826055870379</v>
+        <v>0.03753132074678455</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,283 +1237,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.15683775831508</v>
+        <v>3.33737328273124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988703588420023</v>
+        <v>0.6294393748949015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.83171979370457</v>
+        <v>0.5377421640061192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991789117180062</v>
+        <v>0.000130183917588823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.91899273524103</v>
+        <v>0.0006523370452687486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991746543541139</v>
+        <v>3.061603136078975e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.11190473503845</v>
+        <v>0.01507902678756006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991164615079067</v>
+        <v>0.07424842448588079</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.66095133574506</v>
+        <v>-0.1076272845926584</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991384599965206</v>
+        <v>0.6539130004313349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.47861145643374</v>
+        <v>0.7700065336222381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991473549333505</v>
+        <v>0.01256964816506956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1142303970824556</v>
+        <v>0.2236280929073345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.681111135580882</v>
+        <v>0.5761264092215563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005715389103391058</v>
+        <v>-0.0001275989480307086</v>
       </c>
       <c r="C9" t="n">
-        <v>4.322709285370158e-07</v>
+        <v>0.6163005131468197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01314722788500547</v>
+        <v>-4.571465992437379e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1347500699597416</v>
+        <v>0.9886670129815449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1013349742537247</v>
+        <v>-0.1323149393957455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6811613561623522</v>
+        <v>0.5570264144324404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9854695903457135</v>
+        <v>-0.05876890410324469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001953712395121361</v>
+        <v>0.8731115565625081</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3895564203358775</v>
+        <v>-5.375150778530444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3466994650271766</v>
+        <v>0.4727661366512517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.536633450248829e-05</v>
+        <v>-0.02975010169467757</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7607461257354079</v>
+        <v>0.3761715040400169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.755458947593368e-08</v>
+        <v>-0.03125481910711164</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9097442466000252</v>
+        <v>0.555247435010976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1054993133321423</v>
+        <v>6.129385690202207</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6430958528796884</v>
+        <v>0.06701185613328382</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06304765133380344</v>
+        <v>-1.609451600464935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8662571381435841</v>
+        <v>0.6245784015446754</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.528511626688045</v>
+        <v>-0.001362321629161984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3912007018399739</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.03057070985686001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3724159003447238</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.04434363060417013</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3728939297627129</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5.932295714607085</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.07935322078101623</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.429129608697838</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6678567014355249</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.001518749837731216</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.06191487571918592</v>
+        <v>0.09700218879386419</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,283 +1494,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.20554512463692</v>
+        <v>2.228410908094275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989729583245526</v>
+        <v>0.7529706689263123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.81805990166174</v>
+        <v>0.656053502738968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991451430003926</v>
+        <v>5.83951061887918e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.3280296919492</v>
+        <v>0.0005598710577606318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999170051082114</v>
+        <v>1.029981154962373e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.55441551414726</v>
+        <v>0.01515621754365498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990568845985935</v>
+        <v>0.07095221718176074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.22700437194617</v>
+        <v>-0.03981445850483346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990735268016953</v>
+        <v>0.866022053504783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.77020449770651</v>
+        <v>0.8222561555861663</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990967457935086</v>
+        <v>0.008385547051327876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1983001096272387</v>
+        <v>0.3055339590512677</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4363402571998237</v>
+        <v>0.4403620361483499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004637945409404464</v>
+        <v>-3.336530279926542e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.209724401576369e-05</v>
+        <v>0.8971271750498078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0150851341363046</v>
+        <v>1.674957467918495e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08200546562578599</v>
+        <v>0.6026858528550909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02856975838579177</v>
+        <v>0.03515896396854394</v>
       </c>
       <c r="C11" t="n">
-        <v>0.907543229002423</v>
+        <v>0.8785255988149476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9745301561522423</v>
+        <v>0.1820838258781923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002028319197397812</v>
+        <v>0.6157838506045703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2844840357970677</v>
+        <v>-5.596723271482634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4814000862675469</v>
+        <v>0.4588587924739647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001742841271924862</v>
+        <v>-0.01467186733807401</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4832055389933086</v>
+        <v>0.6606032790405267</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.389393926231427e-09</v>
+        <v>-0.04479020284109071</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9842895246846138</v>
+        <v>0.4056318804168924</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.07012719295126738</v>
+        <v>6.469836683241843</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7583406142753568</v>
+        <v>0.05737815708783153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1835022261157278</v>
+        <v>-0.5758015675126213</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6257137595947386</v>
+        <v>0.8580729088694379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.809057398833916</v>
+        <v>-0.001755192897411258</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7134280895742979</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.01437902026802964</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.678642738567408</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.02473281213738067</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.626820448231171</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.825733679037834</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2646336872985933</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.905056052271325</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7832361428635712</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0007924485665010177</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3491307519822634</v>
+        <v>0.04796308123519635</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,283 +1751,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.50368994948861</v>
+        <v>-0.2206811633069002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988900162475405</v>
+        <v>0.9753288773870304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.27900318339465</v>
+        <v>0.5531264173262938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992172845220758</v>
+        <v>8.668814757728279e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.20639100560449</v>
+        <v>0.0005670393725451302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992205737548761</v>
+        <v>7.660227124791147e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.78905746404431</v>
+        <v>0.01599672956482672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991488811302096</v>
+        <v>0.05314355285494403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.41226887137021</v>
+        <v>-0.01840729080177535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991659491371686</v>
+        <v>0.9382277591017201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.16481569090339</v>
+        <v>0.7449076540661729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991771584276725</v>
+        <v>0.01376631483607341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008404468155733655</v>
+        <v>0.129772704940921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9754501197468999</v>
+        <v>0.7360845154902016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004992152900927549</v>
+        <v>-0.0002210115778654499</v>
       </c>
       <c r="C9" t="n">
-        <v>6.153604520170739e-06</v>
+        <v>0.3832912465336538</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006640255655951607</v>
+        <v>3.950023459907033e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.446085075871987</v>
+        <v>0.8997467074665746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.196499616790601</v>
+        <v>-0.06958091064136192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4235840010615738</v>
+        <v>0.755657349338773</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.125514541566567</v>
+        <v>0.2004236720642634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002919822465127356</v>
+        <v>0.5847094331819069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6268131022507376</v>
+        <v>-1.860623596691738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1201726374320668</v>
+        <v>0.8039059887998528</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.180897038092933e-06</v>
+        <v>-0.01490782361933917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.983444087806184</v>
+        <v>0.6590408123988678</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.88884195356609e-08</v>
+        <v>-0.01431937589904855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7602248392453064</v>
+        <v>0.7895581239732381</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1169667130055617</v>
+        <v>4.557876387517596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6116923192821633</v>
+        <v>0.1760281614822263</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09052053828417445</v>
+        <v>-0.7380184361717989</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8053010404196725</v>
+        <v>0.8183599681495618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9.732006450274307</v>
+        <v>-0.0007116273692528187</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1961102661721884</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02328956691131678</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4889964064449804</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.04625098859298518</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3524310578568499</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5.777902877321519</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.09252859795838818</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.8532764538002743</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7938767986991448</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.001647466261662871</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.04995831747592532</v>
+        <v>0.4009091393879572</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,283 +2008,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.100279011140831</v>
+        <v>4.129890885964174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8944299102950209</v>
+        <v>0.551523518303955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.981012997553815</v>
+        <v>0.6024828057070664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9301203805907255</v>
+        <v>2.794318208427515e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.745627168367204</v>
+        <v>0.000580065845356696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9328661660579551</v>
+        <v>5.861793036231084e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7.762668113373626</v>
+        <v>0.009236641643197863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9093843538913281</v>
+        <v>0.2707825107182192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.419698614968362</v>
+        <v>-0.2008246898092397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9133719465308393</v>
+        <v>0.3999310240384623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.854012740585172</v>
+        <v>0.9026056825112615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.919955719381105</v>
+        <v>0.002541689800768012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1207442101325635</v>
+        <v>0.4489310332943988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6483774974092943</v>
+        <v>0.2452420322836469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004473276648846459</v>
+        <v>-2.946221840133051e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.809147969384309e-05</v>
+        <v>0.9081044834829372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01396157674858068</v>
+        <v>-9.566736540474446e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1020343033122842</v>
+        <v>0.7603219493849783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05944094422373081</v>
+        <v>-0.1244485369119083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8103650830684725</v>
+        <v>0.5831734361168144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.313145879723815</v>
+        <v>-0.07484642231113772</v>
       </c>
       <c r="C12" t="n">
-        <v>3.42553258638058e-05</v>
+        <v>0.8346621797049751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5990899621022491</v>
+        <v>-8.835030373169349</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1345392991352557</v>
+        <v>0.2326618703458067</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002434188171706619</v>
+        <v>-0.02376789801113828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3821246112139213</v>
+        <v>0.4701529333926953</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.313647902569396e-07</v>
+        <v>-0.03697448899509736</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6956668525811142</v>
+        <v>0.4837325049637778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09428070226856755</v>
+        <v>6.197825335425081</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6775595954433605</v>
+        <v>0.06653545560969626</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06393383779223824</v>
+        <v>-0.5025405019754532</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8647055067823914</v>
+        <v>0.8749993494408672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.415097120219862</v>
+        <v>-0.001558961053959383</v>
       </c>
       <c r="C18" t="n">
-        <v>0.47190543215958</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02491347234993891</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4639802054612066</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.01850389334669656</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7265649137863901</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7.833052576298894</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.04146022079378866</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.3639700430115834</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9122081954890454</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.001218184736152446</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1355321299644978</v>
+        <v>0.06563909451390647</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,283 +2265,475 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.29429879043445</v>
+        <v>-0.01056697193468756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9855056351454914</v>
+        <v>0.9988245972713258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11.47306753149194</v>
+        <v>0.6202675941092919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.992190185710202</v>
+        <v>2.204334605875306e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-11.38277741727628</v>
+        <v>0.0005555553093719809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9922516458501028</v>
+        <v>1.497590550553629e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-13.17568311418192</v>
+        <v>0.01529642589907951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9910312467287323</v>
+        <v>0.05997331841986234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.80615305544076</v>
+        <v>-0.08655424992907769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9912827775903076</v>
+        <v>0.7155588697339341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.36802765817796</v>
+        <v>1.052907242754018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9915810015578292</v>
+        <v>0.0005300937085050861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1281036409152443</v>
+        <v>0.4213969155515697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6203883314651519</v>
+        <v>0.2683636132129325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005272737187060987</v>
+        <v>-0.0002811087120657348</v>
       </c>
       <c r="C9" t="n">
-        <v>2.589969837958288e-06</v>
+        <v>0.3240542538504508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01148906992051261</v>
+        <v>-1.168893139525103e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1908071100319523</v>
+        <v>0.7175303029510149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02393935377169619</v>
+        <v>-0.1287828924590138</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9235336680331536</v>
+        <v>0.564583748653128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.161006243646865</v>
+        <v>0.009464589212879154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003077419153978755</v>
+        <v>0.9794126394427091</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5017653833521039</v>
+        <v>-5.127854314022906</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2221857100660859</v>
+        <v>0.4872782653873021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.250446939563843e-05</v>
+        <v>-0.03068965892953731</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9060706619265098</v>
+        <v>0.355190876508922</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.311860297405805e-08</v>
+        <v>-0.006048290073049692</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9012520861501957</v>
+        <v>0.9145839412194514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.04933228079486657</v>
+        <v>8.227005231510347</v>
       </c>
       <c r="C16" t="n">
-        <v>0.835842987449592</v>
+        <v>0.02969726102086589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1358989110858229</v>
+        <v>-0.6733643875411386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7208795962467752</v>
+        <v>0.835353094954804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>transit_accessibility</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.001114616885676237</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1733424798648416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coefficient</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.091749026102108</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3290381442295771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5285809456190697</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.000225449081915096</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IncomeDetailed_Numeric</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0006206305043902418</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.010452557816299e-08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>maxAgeHH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01471137765672586</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.07942055860662299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UniversityEducation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.03623241372159777</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8806248970223014</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>InEmployment</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9099829413724823</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003043873467645026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AllRetired</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3043226778006711</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4364565068972646</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UrbPopDensity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-6.244387102357404e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8236102056660254</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UrbBuildDensity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.330329516399583e-08</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9682680897577319</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DistSubcenter</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.08111154786979985</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7286310108047593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DistCenter</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1473340124046084</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6903725837533079</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>bike_lane_share</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>-9.65433060587228</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2061466211927847</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IntersecDensity</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.05024659240734566</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1441073308740514</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>street_length</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.05527101904903726</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3277907718311162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LU_UrbFab</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7.502475858890821</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04332210220702253</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LU_Comm</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2.002455782030877</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5453127883909588</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>transit_accessibility</t>
+        </is>
+      </c>
       <c r="B18" t="n">
-        <v>-9.862762713543326</v>
+        <v>-0.001767957509646701</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2062478067342701</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.04905521301881797</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1656898302582158</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.0619103397935586</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2457087478057699</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7.449310987172683</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.05016520060805266</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.771260375648704</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6031173236126206</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.001881992087117202</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.03022879575269892</v>
+        <v>0.04224681654335445</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Kassel.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Kassel.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.232749214483619</v>
+        <v>3.741901359662597</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6511990405860955</v>
+        <v>0.6100810344946909</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4796306120785719</v>
+        <v>0.4796306120785717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004707160214097504</v>
+        <v>0.0004707160214097714</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006322496109636854</v>
+        <v>0.0006322496109636858</v>
       </c>
       <c r="C4" t="n">
-        <v>4.353941312599676e-09</v>
+        <v>4.353941312598357e-09</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01368805737598993</v>
+        <v>0.01368805737598987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09462397367275972</v>
+        <v>0.09462397367276001</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04886019742876832</v>
+        <v>-0.04886019742877061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8370012456342086</v>
+        <v>0.8370012456342024</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6471399472101287</v>
+        <v>0.6471399472101291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0323227130163104</v>
+        <v>0.0323227130163081</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1546170200784</v>
+        <v>0.154617020078401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6874442282577469</v>
+        <v>0.6874442282577449</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001021295808167791</v>
+        <v>-0.005254193372338132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7196384296267565</v>
+        <v>0.8618877174788577</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.123773671824233e-08</v>
+        <v>0.0166524146418698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9465529417312567</v>
+        <v>0.9579471372098476</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06415283994933693</v>
+        <v>-0.03780687541815788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7751212881565537</v>
+        <v>0.8683107681117103</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1481494846475344</v>
+        <v>0.2515018631549302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6775117901882015</v>
+        <v>0.4569057717024114</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.647398415974833</v>
+        <v>-0.03170226791573203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6233905385255675</v>
+        <v>0.662031761840024</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02331469707674559</v>
+        <v>-0.01612086159878365</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4806725862055584</v>
+        <v>0.6131866579308138</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04172464904517464</v>
+        <v>-0.05465801009564104</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4611067789379515</v>
+        <v>0.3728970812035526</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.617874988108899</v>
+        <v>0.06362016411987613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07889044273437347</v>
+        <v>0.08817601467405853</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4676716308438432</v>
+        <v>0.007225070158819335</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8859550287723061</v>
+        <v>0.816599435407329</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001465903308550425</v>
+        <v>-0.09867479077585244</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08006484410384296</v>
+        <v>0.08006484410375388</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.146612912674534</v>
+        <v>4.637773871289625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5468459799923684</v>
+        <v>0.5117902138139999</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5921566671559741</v>
+        <v>0.5921566671559736</v>
       </c>
       <c r="C3" t="n">
-        <v>4.666643431491632e-05</v>
+        <v>4.666643431491502e-05</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005851209285656735</v>
+        <v>0.0005851209285656742</v>
       </c>
       <c r="C4" t="n">
-        <v>7.269836185388368e-08</v>
+        <v>7.269836185388165e-08</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01701923507988418</v>
+        <v>0.01701923507988411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04895199148343795</v>
+        <v>0.04895199148343982</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0049110348630996</v>
+        <v>0.00491103486309919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9839064163915354</v>
+        <v>0.9839064163915369</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.796349249757771</v>
+        <v>0.7963492497577702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009917505630960881</v>
+        <v>0.009917505630961398</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2367499527357458</v>
+        <v>0.2367499527357472</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5554672330555697</v>
+        <v>0.5554672330555686</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.850021918451469e-05</v>
+        <v>-0.00306647803820912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7579594653949896</v>
+        <v>0.9106641436131347</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.795682092910333e-10</v>
+        <v>-0.005402865268747913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9975824189490244</v>
+        <v>0.9866250731298514</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1022907979459797</v>
+        <v>-0.07687578336286104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6539289711178344</v>
+        <v>0.740107165762812</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07669728505891249</v>
+        <v>0.02300307716759905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8330976645479077</v>
+        <v>0.9469118697905137</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.246713359080497</v>
+        <v>-0.06786402870980919</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3335620228475557</v>
+        <v>0.3538234463964687</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03295694741377816</v>
+        <v>-0.02601731028777472</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3189923567121514</v>
+        <v>0.4138670850801751</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03903535027699914</v>
+        <v>-0.05151170350815662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4589439175102585</v>
+        <v>0.3706562139225374</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.319894814854827</v>
+        <v>0.06073077150022504</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05952183350719921</v>
+        <v>0.06615213099869702</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.965835136221326</v>
+        <v>-0.008177121427641362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5416210200489442</v>
+        <v>0.7893054332777636</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001414104764324154</v>
+        <v>-0.0951880597723809</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09496024352369727</v>
+        <v>0.09496024352362732</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.659875101853954</v>
+        <v>4.259179727033472</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5923793391051975</v>
+        <v>0.5440591799920926</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5095363117878398</v>
+        <v>0.5095363117878386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003387999021236669</v>
+        <v>0.0003387999021236742</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006083505644298941</v>
+        <v>0.0006083505644298956</v>
       </c>
       <c r="C4" t="n">
-        <v>1.790091708880981e-08</v>
+        <v>1.790091708880949e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01421410350052848</v>
+        <v>0.01421410350052837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09055566888349993</v>
+        <v>0.09055566888350051</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02160437310992282</v>
+        <v>0.02160437310992185</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9277125615589377</v>
+        <v>0.9277125615589419</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7823226463414451</v>
+        <v>0.7823226463414439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01111004771489048</v>
+        <v>0.01111004771489137</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2213602420827077</v>
+        <v>0.2213602420827095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5747548806967145</v>
+        <v>0.5747548806967125</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.265626496355852e-05</v>
+        <v>-0.0004288434176207574</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8034420990020058</v>
+        <v>0.987318559159501</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.944018318336654e-08</v>
+        <v>0.0940429659579847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7517998077717569</v>
+        <v>0.7641536031728892</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1036855438392807</v>
+        <v>-0.07267465927787806</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6472700221354756</v>
+        <v>0.751854126721982</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0430024862658356</v>
+        <v>0.07864987059685567</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9045499520565425</v>
+        <v>0.8173242126519245</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.373069874749647</v>
+        <v>-0.05811408367053839</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3910706333113135</v>
+        <v>0.4234231660666382</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02692051133846263</v>
+        <v>-0.0184529070760813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4147042894985403</v>
+        <v>0.5621370699226014</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03765678507651375</v>
+        <v>-0.05288017786793747</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4719593995994172</v>
+        <v>0.3543837860812961</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.666261762148182</v>
+        <v>0.0636509986091077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04514208774805371</v>
+        <v>0.05244530652291892</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.812346861293064</v>
+        <v>-0.004114305054930773</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5707064762578984</v>
+        <v>0.8922948590254126</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001725461909957182</v>
+        <v>-0.1161465370625957</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03753132074678455</v>
+        <v>0.03753132074689669</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.33737328273124</v>
+        <v>3.810548406810401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6294393748949015</v>
+        <v>0.5911762286532731</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5377421640061192</v>
+        <v>0.5377421640061185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000130183917588823</v>
+        <v>0.0001301839175888326</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006523370452687486</v>
+        <v>0.000652337045268749</v>
       </c>
       <c r="C4" t="n">
-        <v>3.061603136078975e-09</v>
+        <v>3.061603136079232e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01507902678756006</v>
+        <v>0.01507902678756005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07424842448588079</v>
+        <v>0.07424842448588044</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1076272845926584</v>
+        <v>-0.1076272845926603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6539130004313349</v>
+        <v>0.6539130004313402</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7700065336222381</v>
+        <v>0.7700065336222401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01256964816506956</v>
+        <v>0.01256964816507149</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2236280929073345</v>
+        <v>0.223628092907335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5761264092215563</v>
+        <v>0.5761264092215546</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001275989480307086</v>
+        <v>-0.008151519627126871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6163005131468197</v>
+        <v>0.7646710582607874</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.571465992437379e-09</v>
+        <v>-0.008832786234285506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9886670129815449</v>
+        <v>0.9780437766592047</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1323149393957455</v>
+        <v>-0.1078305978210969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5570264144324404</v>
+        <v>0.6368885158209703</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05876890410324469</v>
+        <v>0.03728052824654454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8731115565625081</v>
+        <v>0.9152714020549902</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.375150778530444</v>
+        <v>-0.04931696410869963</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4727661366512517</v>
+        <v>0.5005029279168673</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02975010169467757</v>
+        <v>-0.02306458730154173</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3761715040400169</v>
+        <v>0.4777050079842339</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03125481910711164</v>
+        <v>-0.04327430046992559</v>
       </c>
       <c r="C15" t="n">
-        <v>0.555247435010976</v>
+        <v>0.451952564883501</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.129385690202207</v>
+        <v>0.05891606247162924</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06701185613328382</v>
+        <v>0.07440848195630689</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.609451600464935</v>
+        <v>-0.00503371749533657</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6245784015446754</v>
+        <v>0.8729030802531961</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001362321629161984</v>
+        <v>-0.09170236600387087</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09700218879386419</v>
+        <v>0.09700218879436709</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.228410908094275</v>
+        <v>2.838041996111198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7529706689263123</v>
+        <v>0.6968188378883153</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.656053502738968</v>
+        <v>0.6560535027389681</v>
       </c>
       <c r="C3" t="n">
-        <v>5.83951061887918e-06</v>
+        <v>5.839510618879159e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005598710577606318</v>
+        <v>0.0005598710577606309</v>
       </c>
       <c r="C4" t="n">
-        <v>1.029981154962373e-07</v>
+        <v>1.029981154962443e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1536,7 +1536,7 @@
         <v>0.01515621754365498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07095221718176074</v>
+        <v>0.07095221718175836</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03981445850483346</v>
+        <v>-0.03981445850483589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.866022053504783</v>
+        <v>0.8660220535047761</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8222561555861663</v>
+        <v>0.8222561555861695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008385547051327876</v>
+        <v>0.00838554705132832</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3055339590512677</v>
+        <v>0.3055339590512679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4403620361483499</v>
+        <v>0.4403620361483467</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.336530279926542e-05</v>
+        <v>0.002600824896910873</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8971271750498078</v>
+        <v>0.9254355157617223</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.674957467918495e-07</v>
+        <v>0.1620055315137695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6026858528550909</v>
+        <v>0.6134644864435965</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03515896396854394</v>
+        <v>0.06670418905320642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8785255988149476</v>
+        <v>0.7752389308534989</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1820838258781923</v>
+        <v>0.3058323430066011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6157838506045703</v>
+        <v>0.3710367359483634</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.596723271482634</v>
+        <v>-0.05025383919759226</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4588587924739647</v>
+        <v>0.495039912167384</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01467186733807401</v>
+        <v>-0.006058359978880813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6606032790405267</v>
+        <v>0.849751684395019</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04479020284109071</v>
+        <v>-0.0602759059724087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4056318804168924</v>
+        <v>0.3077401498445119</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.469836683241843</v>
+        <v>0.06163485539254056</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05737815708783153</v>
+        <v>0.06570841208002144</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5758015675126213</v>
+        <v>0.00849253615321573</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8580729088694379</v>
+        <v>0.7800883098860107</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001755192897411258</v>
+        <v>-0.1181478279727586</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04796308123519635</v>
+        <v>0.04796308123544835</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2206811633069002</v>
+        <v>0.02648834610757641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9753288773870304</v>
+        <v>0.9971174747060803</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5531264173262938</v>
+        <v>0.5531264173262939</v>
       </c>
       <c r="C3" t="n">
-        <v>8.668814757728279e-05</v>
+        <v>8.668814757728228e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005670393725451302</v>
+        <v>0.0005670393725451304</v>
       </c>
       <c r="C4" t="n">
-        <v>7.660227124791147e-08</v>
+        <v>7.660227124791077e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01599672956482672</v>
+        <v>0.01599672956482671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05314355285494403</v>
+        <v>0.05314355285494312</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01840729080177535</v>
+        <v>-0.01840729080177575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9382277591017201</v>
+        <v>0.9382277591017181</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7449076540661729</v>
+        <v>0.7449076540661724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01376631483607341</v>
+        <v>0.0137663148360733</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.129772704940921</v>
+        <v>0.1297727049409208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7360845154902016</v>
+        <v>0.7360845154902012</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0002210115778654499</v>
+        <v>-0.01969390987034949</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3832912465336538</v>
+        <v>0.4692259886550312</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.950023459907033e-08</v>
+        <v>0.03727427558297675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8997467074665746</v>
+        <v>0.9051218955831923</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06958091064136192</v>
+        <v>-0.05679117934026703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.755657349338773</v>
+        <v>0.8013581480998337</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2004236720642634</v>
+        <v>0.2505964091023963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5847094331819069</v>
+        <v>0.4689113439484086</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.860623596691738</v>
+        <v>-0.01628979131620894</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8039059887998528</v>
+        <v>0.8237299950112473</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01490782361933917</v>
+        <v>-0.01141555357249608</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6590408123988678</v>
+        <v>0.7244613594314544</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01431937589904855</v>
+        <v>-0.02059791667745998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7895581239732381</v>
+        <v>0.7251351367583374</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.557876387517596</v>
+        <v>0.044336690374393</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1760281614822263</v>
+        <v>0.1814846996782561</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7380184361717989</v>
+        <v>-0.001602424707516669</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8183599681495618</v>
+        <v>0.958187930060157</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0007116273692528187</v>
+        <v>-0.04790198736970618</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4009091393879572</v>
+        <v>0.4009091393877521</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.129890885964174</v>
+        <v>4.671364774619978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.551523518303955</v>
+        <v>0.5122599203339371</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6024828057070664</v>
+        <v>0.6024828057070662</v>
       </c>
       <c r="C3" t="n">
-        <v>2.794318208427515e-05</v>
+        <v>2.794318208427416e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000580065845356696</v>
+        <v>0.0005800658453566963</v>
       </c>
       <c r="C4" t="n">
-        <v>5.861793036231084e-08</v>
+        <v>5.861793036230191e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009236641643197863</v>
+        <v>0.009236641643197846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2707825107182192</v>
+        <v>0.2707825107182156</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2008246898092397</v>
+        <v>-0.2008246898092414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3999310240384623</v>
+        <v>0.3999310240384439</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9026056825112615</v>
+        <v>0.9026056825112636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002541689800768012</v>
+        <v>0.002541689800767639</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4489310332943988</v>
+        <v>0.4489310332944004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2452420322836469</v>
+        <v>0.2452420322836418</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.946221840133051e-05</v>
+        <v>0.002327332706416919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9081044834829372</v>
+        <v>0.9322367184894558</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.566736540474446e-08</v>
+        <v>-0.1005437706186753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7603219493849783</v>
+        <v>0.7477626479974984</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1244485369119083</v>
+        <v>-0.09643009095198402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5831734361168144</v>
+        <v>0.6746681749487253</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07484642231113772</v>
+        <v>0.03506692053164021</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8346621797049751</v>
+        <v>0.9175772016385112</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.835030373169349</v>
+        <v>-0.08327567176820015</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2326618703458067</v>
+        <v>0.2489629749690724</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02376789801113828</v>
+        <v>-0.01611738704406719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4701529333926953</v>
+        <v>0.6101091124994813</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03697448899509736</v>
+        <v>-0.05072887924503158</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4837325049637778</v>
+        <v>0.379314814446975</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.197825335425081</v>
+        <v>0.0592572447231372</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06653545560969626</v>
+        <v>0.0751234610587191</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5025405019754532</v>
+        <v>0.007631924741879632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8749993494408672</v>
+        <v>0.8010929282419774</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001558961053959383</v>
+        <v>-0.1049388148112332</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06563909451390647</v>
+        <v>0.06563909451348533</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01056697193468756</v>
+        <v>0.3765728722039172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988245972713258</v>
+        <v>0.9591534570014721</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6202675941092919</v>
+        <v>0.6202675941092921</v>
       </c>
       <c r="C3" t="n">
-        <v>2.204334605875306e-05</v>
+        <v>2.204334605875434e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005555553093719809</v>
+        <v>0.0005555553093719807</v>
       </c>
       <c r="C4" t="n">
-        <v>1.497590550553629e-07</v>
+        <v>1.497590550553665e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01529642589907951</v>
+        <v>0.0152964258990795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05997331841986234</v>
+        <v>0.0599733184198627</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.08655424992907769</v>
+        <v>-0.08655424992907865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7155588697339341</v>
+        <v>0.7155588697339308</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.052907242754018</v>
+        <v>1.052907242754019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005300937085050861</v>
+        <v>0.0005300937085051623</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4213969155515697</v>
+        <v>0.4213969155515703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2683636132129325</v>
+        <v>0.2683636132129323</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0002811087120657348</v>
+        <v>-0.02434041592150359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3240542538504508</v>
+        <v>0.4199476444569443</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.168893139525103e-07</v>
+        <v>-0.1203758177231002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7175303029510149</v>
+        <v>0.7087171845455253</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1287828924590138</v>
+        <v>-0.1087504273130522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.564583748653128</v>
+        <v>0.631373336390191</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.009464589212879154</v>
+        <v>0.08804979028802883</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9794126394427091</v>
+        <v>0.8010388880092644</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.127854314022906</v>
+        <v>-0.04765031236387648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4872782653873021</v>
+        <v>0.508872105873502</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03068965892953731</v>
+        <v>-0.0252197412004862</v>
       </c>
       <c r="C14" t="n">
-        <v>0.355190876508922</v>
+        <v>0.4312432441883554</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.006048290073049692</v>
+        <v>-0.01588232382637509</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9145839412194514</v>
+        <v>0.7943015316092754</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.227005231510347</v>
+        <v>0.08032460142740515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02969726102086589</v>
+        <v>0.03222000775008183</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6733643875411386</v>
+        <v>0.002316019965812616</v>
       </c>
       <c r="C17" t="n">
-        <v>0.835353094954804</v>
+        <v>0.9405103543507515</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001114616885676237</v>
+        <v>-0.07502854202443478</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1733424798648416</v>
+        <v>0.1733424798648873</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.091749026102108</v>
+        <v>7.705813646445331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3290381442295771</v>
+        <v>0.3013430187868485</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5285809456190697</v>
+        <v>0.5285809456190691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000225449081915096</v>
+        <v>0.0002254490819150921</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006206305043902418</v>
+        <v>0.0006206305043902423</v>
       </c>
       <c r="C4" t="n">
-        <v>1.010452557816299e-08</v>
+        <v>1.010452557816491e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01471137765672586</v>
+        <v>0.01471137765672588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07942055860662299</v>
+        <v>0.07942055860662198</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03623241372159777</v>
+        <v>-0.03623241372159438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8806248970223014</v>
+        <v>0.8806248970223139</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9099829413724823</v>
+        <v>0.909982941372481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003043873467645026</v>
+        <v>0.003043873467645274</v>
       </c>
     </row>
     <row r="8">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3043226778006711</v>
+        <v>0.3043226778006713</v>
       </c>
       <c r="C8" t="n">
         <v>0.4364565068972646</v>
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.244387102357404e-05</v>
+        <v>-0.0002638526050811988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8236102056660254</v>
+        <v>0.9929508102269349</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.330329516399583e-08</v>
+        <v>-0.01883343794476135</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9682680897577319</v>
+        <v>0.9549466800779127</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.08111154786979985</v>
+        <v>-0.04933691064094398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7286310108047593</v>
+        <v>0.835601749764543</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1473340124046084</v>
+        <v>-0.02268553616735471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6903725837533079</v>
+        <v>0.9484700165001145</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.65433060587228</v>
+        <v>-0.09078836197865808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2061466211927847</v>
+        <v>0.2233285006323599</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05024659240734566</v>
+        <v>-0.04157044345383946</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1441073308740514</v>
+        <v>0.2101743150669257</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.05527101904903726</v>
+        <v>-0.07086934170837911</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3277907718311162</v>
+        <v>0.2482902697599659</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.502475858890821</v>
+        <v>0.07193896781114656</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04332210220702253</v>
+        <v>0.05000603683252243</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.002455782030877</v>
+        <v>-0.005670369082030413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5453127883909588</v>
+        <v>0.8571735123990547</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001767957509646701</v>
+        <v>-0.1190070561594607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04224681654335445</v>
+        <v>0.04224681654345939</v>
       </c>
     </row>
   </sheetData>
